--- a/cam/RP2040-ProMini-20230716-JLCPCB-CPL-SOIC.xlsx
+++ b/cam/RP2040-ProMini-20230716-JLCPCB-CPL-SOIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-ProMini\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35DE92-22D0-4E75-A6DA-631D4232376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2787151-5E5D-4FC1-A3C4-1BD780AC910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="996" windowWidth="19656" windowHeight="21684" xr2:uid="{1DC8C5A6-54F6-45D4-9EBD-5B030B60A142}"/>
+    <workbookView xWindow="25944" yWindow="2928" windowWidth="19656" windowHeight="21684" xr2:uid="{1DC8C5A6-54F6-45D4-9EBD-5B030B60A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,15 +256,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040_ProMini_top_pos_1" connectionId="2" xr16:uid="{E4864858-A2E2-43A0-ACA3-D4B3DF4AA95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040-ProMini-top-pos" connectionId="1" xr16:uid="{0C952B44-05C2-4120-9598-E5166FF6036E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040-ProMini-top-pos" connectionId="1" xr16:uid="{0C952B44-05C2-4120-9598-E5166FF6036E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040_ProMini_top_pos_2" connectionId="3" xr16:uid="{2FDB1C3C-BF2A-452A-BE46-DE621FB42441}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040_ProMini_top_pos_2" connectionId="3" xr16:uid="{2FDB1C3C-BF2A-452A-BE46-DE621FB42441}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RP2040_ProMini_top_pos_1" connectionId="2" xr16:uid="{E4864858-A2E2-43A0-ACA3-D4B3DF4AA95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,7 +567,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,16 +1059,16 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>143.76400000000001</v>
+        <v>143.256</v>
       </c>
       <c r="C29">
-        <v>-102.616</v>
+        <v>-103.124</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,16 +1076,16 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>142.74799999999999</v>
+        <v>143.256</v>
       </c>
       <c r="C30">
-        <v>-102.616</v>
+        <v>-101.854</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
